--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="534">
   <si>
     <t>日本語</t>
   </si>
@@ -918,34 +914,34 @@
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1036,15 +1032,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1052,38 +1048,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1132,91 +1128,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1226,55 +1222,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1323,55 +1319,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1501,122 +1497,122 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
@@ -1741,38 +1737,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1806,7 +1790,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2142,20 +2126,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2221,7 +2200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -2385,7 +2364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2437,7 +2416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2489,7 +2468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2541,7 +2520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2593,7 +2572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -2645,7 +2624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2697,7 +2676,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2749,7 +2728,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -2801,7 +2780,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2853,7 +2832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -2905,7 +2884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>199</v>
       </c>
@@ -2957,7 +2936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
@@ -3009,7 +2988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3061,7 +3040,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -3113,7 +3092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -3171,7 +3150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>272</v>
       </c>
@@ -3227,7 +3206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>286</v>
       </c>
@@ -3279,7 +3258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>299</v>
       </c>
@@ -3289,7 +3268,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>534</v>
+        <v>301</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -3321,7 +3300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>308</v>
       </c>
@@ -3373,7 +3352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
@@ -3425,7 +3404,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3477,7 +3456,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>350</v>
       </c>
@@ -3529,7 +3508,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>364</v>
       </c>
@@ -3581,7 +3560,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>378</v>
       </c>
@@ -3633,7 +3612,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
@@ -3685,7 +3664,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>406</v>
       </c>
@@ -3737,7 +3716,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -3789,7 +3768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>434</v>
       </c>
@@ -3841,7 +3820,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>448</v>
       </c>
@@ -3893,7 +3872,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>461</v>
       </c>
@@ -3949,7 +3928,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>477</v>
       </c>
@@ -4005,49 +3984,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="40.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1" t="s">
-        <v>307</v>
-      </c>
     </row>
-    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>493</v>
       </c>
@@ -4089,7 +4031,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>502</v>
       </c>
@@ -4147,7 +4089,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>517</v>
       </c>
@@ -4206,8 +4148,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
   <si>
     <t>日本語</t>
   </si>
@@ -914,34 +918,34 @@
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1032,15 +1036,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1048,38 +1052,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1128,91 +1132,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1222,55 +1226,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1319,55 +1323,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1497,122 +1501,122 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
@@ -1737,26 +1741,38 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>Change ~b~Language~s~ to use.
+This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1790,7 +1806,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2126,15 +2142,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V41"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2200,7 +2221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2310,7 +2331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -2364,7 +2385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2520,7 +2541,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2572,7 +2593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2676,7 +2697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2728,7 +2749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -2780,7 +2801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>199</v>
       </c>
@@ -2936,7 +2957,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
@@ -2988,7 +3009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3040,7 +3061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>272</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>286</v>
       </c>
@@ -3258,7 +3279,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>299</v>
       </c>
@@ -3268,7 +3289,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>301</v>
+        <v>534</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -3300,7 +3321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>308</v>
       </c>
@@ -3352,7 +3373,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3456,7 +3477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>350</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>364</v>
       </c>
@@ -3560,7 +3581,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>378</v>
       </c>
@@ -3612,7 +3633,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>406</v>
       </c>
@@ -3716,7 +3737,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -3768,7 +3789,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>434</v>
       </c>
@@ -3820,7 +3841,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>448</v>
       </c>
@@ -3872,7 +3893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>461</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>477</v>
       </c>
@@ -3984,12 +4005,49 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" ht="40.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="38" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>493</v>
       </c>
@@ -4031,7 +4089,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>502</v>
       </c>
@@ -4089,7 +4147,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>517</v>
       </c>
@@ -4148,7 +4206,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="534">
   <si>
     <t>日本語</t>
   </si>
@@ -918,34 +914,34 @@
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1036,15 +1032,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1052,38 +1048,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1132,91 +1128,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1226,55 +1222,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1323,55 +1319,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1501,122 +1497,122 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
@@ -1741,38 +1737,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1806,7 +1790,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2142,20 +2126,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2221,7 +2200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -2385,7 +2364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2437,7 +2416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2489,7 +2468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2541,7 +2520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2593,7 +2572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -2645,7 +2624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2697,7 +2676,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2749,7 +2728,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -2801,7 +2780,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2853,7 +2832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -2905,7 +2884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>199</v>
       </c>
@@ -2957,7 +2936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
@@ -3009,7 +2988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3061,7 +3040,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -3113,7 +3092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -3171,7 +3150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>272</v>
       </c>
@@ -3227,7 +3206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>286</v>
       </c>
@@ -3279,7 +3258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>299</v>
       </c>
@@ -3289,7 +3268,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>534</v>
+        <v>301</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -3321,7 +3300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>308</v>
       </c>
@@ -3373,7 +3352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
@@ -3425,7 +3404,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3477,7 +3456,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>350</v>
       </c>
@@ -3529,7 +3508,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>364</v>
       </c>
@@ -3581,7 +3560,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>378</v>
       </c>
@@ -3633,7 +3612,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
@@ -3685,7 +3664,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>406</v>
       </c>
@@ -3737,7 +3716,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -3789,7 +3768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>434</v>
       </c>
@@ -3841,7 +3820,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>448</v>
       </c>
@@ -3893,7 +3872,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>461</v>
       </c>
@@ -3949,7 +3928,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>477</v>
       </c>
@@ -4005,7 +3984,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>299</v>
       </c>
@@ -4017,37 +3996,8 @@
       <c r="E37" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1" t="s">
-        <v>307</v>
-      </c>
     </row>
-    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>493</v>
       </c>
@@ -4089,7 +4039,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>502</v>
       </c>
@@ -4147,7 +4097,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>517</v>
       </c>
@@ -4206,8 +4156,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E15F-7E11-47A3-94D8-21C0C17031D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
   <si>
     <t>日本語</t>
   </si>
@@ -1743,8 +1743,24 @@
     <t>Vertimo raida: {0}</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+    <t>LanguageSelectItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する~b~言語~s~を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Select ~b~Language~s~ to use</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2143,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2279,1929 +2295,1970 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="V3" s="1" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="s">
-        <v>298</v>
+      <c r="A22" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" t="s">
+        <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
+    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
-        <v>534</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q24" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="V24" s="1" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>323</v>
+        <v>286</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>325</v>
+        <v>287</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>337</v>
+        <v>308</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>351</v>
-      </c>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>353</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>361</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>473</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>489</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>299</v>
+        <v>448</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>302</v>
+        <v>452</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>303</v>
+        <v>453</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>306</v>
+        <v>458</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>307</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>494</v>
+        <v>461</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="E38" s="3" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+        <v>468</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="V38" s="1" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>503</v>
+        <v>299</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>505</v>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>506</v>
+        <v>302</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>507</v>
+        <v>303</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>511</v>
+        <v>305</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>514</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>527</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>531</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>533</v>
       </c>
     </row>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
   <si>
     <t>日本語</t>
   </si>
@@ -914,34 +918,34 @@
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1032,15 +1036,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1048,38 +1052,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1128,91 +1132,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1222,55 +1226,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1319,55 +1323,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1497,122 +1501,122 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
@@ -1737,26 +1741,38 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>Change ~b~Language~s~ to use.
+This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1790,7 +1806,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2126,15 +2142,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V41"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2200,7 +2221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2310,7 +2331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -2364,7 +2385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2520,7 +2541,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2572,7 +2593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2676,7 +2697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2728,7 +2749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -2780,7 +2801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>199</v>
       </c>
@@ -2936,7 +2957,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
@@ -2988,7 +3009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3040,7 +3061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>272</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>286</v>
       </c>
@@ -3258,7 +3279,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>299</v>
       </c>
@@ -3268,7 +3289,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>301</v>
+        <v>534</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -3300,7 +3321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>308</v>
       </c>
@@ -3352,7 +3373,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3456,7 +3477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>350</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>364</v>
       </c>
@@ -3560,7 +3581,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>378</v>
       </c>
@@ -3612,7 +3633,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>406</v>
       </c>
@@ -3716,7 +3737,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -3768,7 +3789,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>434</v>
       </c>
@@ -3820,7 +3841,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>448</v>
       </c>
@@ -3872,7 +3893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>461</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>477</v>
       </c>
@@ -3984,7 +4005,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>299</v>
       </c>
@@ -3996,8 +4017,37 @@
       <c r="E37" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="38" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>493</v>
       </c>
@@ -4039,7 +4089,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>502</v>
       </c>
@@ -4097,7 +4147,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>517</v>
       </c>
@@ -4156,7 +4206,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554BD2B-745B-4B97-998E-76F9031BDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
   <si>
     <t>日本語</t>
   </si>
@@ -126,6 +122,57 @@
   </si>
   <si>
     <t>Situacijų meniu</t>
+  </si>
+  <si>
+    <t>LanguageSelectMenuTitle</t>
+  </si>
+  <si>
+    <t>言語選択</t>
+  </si>
+  <si>
+    <t>選擇語言</t>
+  </si>
+  <si>
+    <t>Language Select</t>
+  </si>
+  <si>
+    <t>Menu de sélection de la langue</t>
+  </si>
+  <si>
+    <t>Sprachen Auswahl</t>
+  </si>
+  <si>
+    <t>Seleziona lingua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybór języka </t>
+  </si>
+  <si>
+    <t>Seleção de Idioma</t>
+  </si>
+  <si>
+    <t>Меню выбора языка</t>
+  </si>
+  <si>
+    <t>Selección de idioma</t>
+  </si>
+  <si>
+    <t>Dil Seçme</t>
+  </si>
+  <si>
+    <t>Vyberte jazyk</t>
+  </si>
+  <si>
+    <t>Ændre sprog</t>
+  </si>
+  <si>
+    <t>Språkval</t>
+  </si>
+  <si>
+    <t>Valitse kieli</t>
+  </si>
+  <si>
+    <t>Kalbos pasirinkimas</t>
   </si>
   <si>
     <t>PylonMenuTitle</t>
@@ -783,55 +830,13 @@
     <t>Visi</t>
   </si>
   <si>
-    <t>LanguageSelectMenuTitle</t>
-  </si>
-  <si>
-    <t>言語選択</t>
-  </si>
-  <si>
-    <t>選擇語言</t>
-  </si>
-  <si>
-    <t>Language Select</t>
-  </si>
-  <si>
-    <t>Menu de sélection de la langue</t>
-  </si>
-  <si>
-    <t>Sprachen Auswahl</t>
-  </si>
-  <si>
-    <t>Seleziona lingua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wybór języka </t>
-  </si>
-  <si>
-    <t>Seleção de Idioma</t>
-  </si>
-  <si>
-    <t>Меню выбора языка</t>
-  </si>
-  <si>
-    <t>Selección de idioma</t>
-  </si>
-  <si>
-    <t>Dil Seçme</t>
-  </si>
-  <si>
-    <t>Vyberte jazyk</t>
-  </si>
-  <si>
-    <t>Ændre sprog</t>
-  </si>
-  <si>
-    <t>Språkval</t>
-  </si>
-  <si>
-    <t>Valitse kieli</t>
-  </si>
-  <si>
-    <t>Kalbos pasirinkimas</t>
+    <t>LanguageSelectItem</t>
+  </si>
+  <si>
+    <t>使用する~b~言語~s~を選択する</t>
+  </si>
+  <si>
+    <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
     <t>AlgorithmItem</t>
@@ -915,40 +920,6 @@
     <t>Eismo kontrolės meniu</t>
   </si>
   <si>
-    <t>LanguageSelectItemDesc</t>
-  </si>
-  <si>
-    <t>使用する~b~言語~s~を変更します。
-これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
-  </si>
-  <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>~b~Sprache~s~ ändern.
-Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
-Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
-  </si>
-  <si>
-    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
-  </si>
-  <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
-Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
-  </si>
-  <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
-To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
-Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
-  </si>
-  <si>
     <t>TrafficControlMenuItemDesc</t>
   </si>
   <si>
@@ -1036,15 +1007,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1052,38 +1023,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1132,91 +1103,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1226,55 +1197,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1323,55 +1294,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1501,125 +1472,159 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
+    <t>LanguageSelectItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
+This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
+Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
+  </si>
+  <si>
+    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
+  </si>
+  <si>
     <t>AlgorithmItemDesc</t>
   </si>
   <si>
@@ -1741,38 +1746,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1806,7 +1799,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2142,20 +2135,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V44"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2221,7 +2209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2293,1921 +2281,1889 @@
       <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="V3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="P19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>272</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="E22" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q24" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="V24" s="1" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>325</v>
+        <v>290</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>337</v>
+        <v>302</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>339</v>
+        <v>304</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>473</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>489</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>299</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>301</v>
+        <v>445</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>303</v>
+        <v>447</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>307</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>494</v>
+        <v>455</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E38" s="3" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+        <v>462</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="V38" s="1" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>503</v>
+        <v>487</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>505</v>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>514</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>527</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>531</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>533</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E15F-7E11-47A3-94D8-21C0C17031D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -124,57 +128,6 @@
     <t>Situacijų meniu</t>
   </si>
   <si>
-    <t>LanguageSelectMenuTitle</t>
-  </si>
-  <si>
-    <t>言語選択</t>
-  </si>
-  <si>
-    <t>選擇語言</t>
-  </si>
-  <si>
-    <t>Language Select</t>
-  </si>
-  <si>
-    <t>Menu de sélection de la langue</t>
-  </si>
-  <si>
-    <t>Sprachen Auswahl</t>
-  </si>
-  <si>
-    <t>Seleziona lingua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wybór języka </t>
-  </si>
-  <si>
-    <t>Seleção de Idioma</t>
-  </si>
-  <si>
-    <t>Меню выбора языка</t>
-  </si>
-  <si>
-    <t>Selección de idioma</t>
-  </si>
-  <si>
-    <t>Dil Seçme</t>
-  </si>
-  <si>
-    <t>Vyberte jazyk</t>
-  </si>
-  <si>
-    <t>Ændre sprog</t>
-  </si>
-  <si>
-    <t>Språkval</t>
-  </si>
-  <si>
-    <t>Valitse kieli</t>
-  </si>
-  <si>
-    <t>Kalbos pasirinkimas</t>
-  </si>
-  <si>
     <t>PylonMenuTitle</t>
   </si>
   <si>
@@ -830,13 +783,55 @@
     <t>Visi</t>
   </si>
   <si>
-    <t>LanguageSelectItem</t>
-  </si>
-  <si>
-    <t>使用する~b~言語~s~を選択する</t>
-  </si>
-  <si>
-    <t>Select ~b~Language~s~ to use</t>
+    <t>LanguageSelectMenuTitle</t>
+  </si>
+  <si>
+    <t>言語選択</t>
+  </si>
+  <si>
+    <t>選擇語言</t>
+  </si>
+  <si>
+    <t>Language Select</t>
+  </si>
+  <si>
+    <t>Menu de sélection de la langue</t>
+  </si>
+  <si>
+    <t>Sprachen Auswahl</t>
+  </si>
+  <si>
+    <t>Seleziona lingua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybór języka </t>
+  </si>
+  <si>
+    <t>Seleção de Idioma</t>
+  </si>
+  <si>
+    <t>Меню выбора языка</t>
+  </si>
+  <si>
+    <t>Selección de idioma</t>
+  </si>
+  <si>
+    <t>Dil Seçme</t>
+  </si>
+  <si>
+    <t>Vyberte jazyk</t>
+  </si>
+  <si>
+    <t>Ændre sprog</t>
+  </si>
+  <si>
+    <t>Språkval</t>
+  </si>
+  <si>
+    <t>Valitse kieli</t>
+  </si>
+  <si>
+    <t>Kalbos pasirinkimas</t>
   </si>
   <si>
     <t>AlgorithmItem</t>
@@ -920,6 +915,40 @@
     <t>Eismo kontrolės meniu</t>
   </si>
   <si>
+    <t>LanguageSelectItemDesc</t>
+  </si>
+  <si>
+    <t>使用する~b~言語~s~を変更します。
+これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
+  </si>
+  <si>
+    <t>Change ~b~Language~s~ to use.
+This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t>~b~Sprache~s~ ändern.
+Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t>Cambia ~b~Lingua~s~ da usare.
+Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
+  </si>
+  <si>
+    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
+  </si>
+  <si>
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
+Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
+  </si>
+  <si>
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t>Pakeisti naudojamą ~b~kalbą~s~
+Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
+  </si>
+  <si>
     <t>TrafficControlMenuItemDesc</t>
   </si>
   <si>
@@ -1007,15 +1036,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1023,38 +1052,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1103,91 +1132,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1197,55 +1226,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1294,55 +1323,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1472,159 +1501,125 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
-    <t>LanguageSelectItemDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
-これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
-Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
-Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
-  </si>
-  <si>
-    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
-Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
-To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
-Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
-  </si>
-  <si>
     <t>AlgorithmItemDesc</t>
   </si>
   <si>
@@ -1746,26 +1741,54 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>LanguageSelectItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する~b~言語~s~を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Select ~b~Language~s~ to use</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1799,7 +1822,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2135,15 +2158,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2209,7 +2237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2267,1733 +2295,1805 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>487</v>
+        <v>299</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>488</v>
+        <v>300</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>489</v>
+        <v>301</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>490</v>
+        <v>302</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>491</v>
+        <v>303</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>493</v>
+        <v>305</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4001,41 +4101,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>495</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4043,127 +4143,128 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E15F-7E11-47A3-94D8-21C0C17031D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -128,6 +124,57 @@
     <t>Situacijų meniu</t>
   </si>
   <si>
+    <t>LanguageSelectMenuTitle</t>
+  </si>
+  <si>
+    <t>言語選択</t>
+  </si>
+  <si>
+    <t>選擇語言</t>
+  </si>
+  <si>
+    <t>Language Select</t>
+  </si>
+  <si>
+    <t>Menu de sélection de la langue</t>
+  </si>
+  <si>
+    <t>Sprachen Auswahl</t>
+  </si>
+  <si>
+    <t>Seleziona lingua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybór języka </t>
+  </si>
+  <si>
+    <t>Seleção de Idioma</t>
+  </si>
+  <si>
+    <t>Меню выбора языка</t>
+  </si>
+  <si>
+    <t>Selección de idioma</t>
+  </si>
+  <si>
+    <t>Dil Seçme</t>
+  </si>
+  <si>
+    <t>Vyberte jazyk</t>
+  </si>
+  <si>
+    <t>Ændre sprog</t>
+  </si>
+  <si>
+    <t>Språkval</t>
+  </si>
+  <si>
+    <t>Valitse kieli</t>
+  </si>
+  <si>
+    <t>Kalbos pasirinkimas</t>
+  </si>
+  <si>
     <t>PylonMenuTitle</t>
   </si>
   <si>
@@ -783,55 +830,13 @@
     <t>Visi</t>
   </si>
   <si>
-    <t>LanguageSelectMenuTitle</t>
-  </si>
-  <si>
-    <t>言語選択</t>
-  </si>
-  <si>
-    <t>選擇語言</t>
-  </si>
-  <si>
-    <t>Language Select</t>
-  </si>
-  <si>
-    <t>Menu de sélection de la langue</t>
-  </si>
-  <si>
-    <t>Sprachen Auswahl</t>
-  </si>
-  <si>
-    <t>Seleziona lingua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wybór języka </t>
-  </si>
-  <si>
-    <t>Seleção de Idioma</t>
-  </si>
-  <si>
-    <t>Меню выбора языка</t>
-  </si>
-  <si>
-    <t>Selección de idioma</t>
-  </si>
-  <si>
-    <t>Dil Seçme</t>
-  </si>
-  <si>
-    <t>Vyberte jazyk</t>
-  </si>
-  <si>
-    <t>Ændre sprog</t>
-  </si>
-  <si>
-    <t>Språkval</t>
-  </si>
-  <si>
-    <t>Valitse kieli</t>
-  </si>
-  <si>
-    <t>Kalbos pasirinkimas</t>
+    <t>LanguageSelectItem</t>
+  </si>
+  <si>
+    <t>使用する~b~言語~s~を選択する</t>
+  </si>
+  <si>
+    <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
     <t>AlgorithmItem</t>
@@ -915,40 +920,6 @@
     <t>Eismo kontrolės meniu</t>
   </si>
   <si>
-    <t>LanguageSelectItemDesc</t>
-  </si>
-  <si>
-    <t>使用する~b~言語~s~を変更します。
-これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
-  </si>
-  <si>
-    <t>Change ~b~Language~s~ to use.
-This only applies to ~g~plugins created by DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>~b~Sprache~s~ ändern.
-Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
-Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
-  </si>
-  <si>
-    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
-  </si>
-  <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
-Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
-  </si>
-  <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
-To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
-  </si>
-  <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
-Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
-  </si>
-  <si>
     <t>TrafficControlMenuItemDesc</t>
   </si>
   <si>
@@ -1036,15 +1007,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1052,38 +1023,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1132,91 +1103,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1226,55 +1197,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1323,55 +1294,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1501,125 +1472,159 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
+    <t>LanguageSelectItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
+This only applies to ~g~plugins created by DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
+Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
+  </si>
+  <si>
+    <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
+  </si>
+  <si>
     <t>AlgorithmItemDesc</t>
   </si>
   <si>
@@ -1741,54 +1746,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>LanguageSelectItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する~b~言語~s~を選択する</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Select ~b~Language~s~ to use</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1822,7 +1799,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2158,20 +2135,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2237,7 +2209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2295,1805 +2267,1733 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>536</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>299</v>
+        <v>487</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>300</v>
+        <v>488</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>302</v>
+        <v>490</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>303</v>
+        <v>491</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>304</v>
+        <v>492</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>305</v>
+        <v>493</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>306</v>
+        <v>494</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4101,41 +4001,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>307</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4143,128 +4043,127 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -515,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -1007,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1023,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1103,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1197,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1294,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1472,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1746,26 +1747,37 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1799,7 +1811,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2135,15 +2147,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2209,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2267,7 +2284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2377,7 +2394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -2587,7 +2604,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>125</v>
       </c>
@@ -2639,7 +2656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -2743,64 +2760,64 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2811,20 +2828,20 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>92</v>
@@ -2838,7 +2855,7 @@
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2847,1153 +2864,1153 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>271</v>
       </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="V24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="V38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="V39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4001,41 +4018,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4043,127 +4060,128 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="V43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -519,6 +515,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -1008,15 +1007,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1023,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1103,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1197,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1294,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1472,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,37 +1746,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1811,7 +1799,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2147,20 +2135,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2226,7 +2209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2284,7 +2267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,7 +2325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2394,7 +2377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2448,7 +2431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2500,7 +2483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -2552,7 +2535,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -2604,7 +2587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>125</v>
       </c>
@@ -2656,7 +2639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
@@ -2708,7 +2691,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -2760,64 +2743,64 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2828,20 +2811,20 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>92</v>
@@ -2855,7 +2838,7 @@
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2864,1153 +2847,1153 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4018,41 +4001,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4060,128 +4043,127 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="555">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -326,6 +334,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +421,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +466,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +509,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +539,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +620,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +665,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +710,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +755,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +800,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +845,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +881,12 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +905,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +947,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1061,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1077,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1157,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1251,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1348,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1526,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,37 +1800,26 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1811,7 +1853,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2147,20 +2189,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2226,7 +2263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2249,1768 +2286,1808 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>288</v>
+      </c>
+      <c r="I22" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4018,41 +4095,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4060,128 +4137,127 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -334,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -421,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -466,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -509,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -539,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -620,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -665,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -710,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -755,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -800,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -845,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -881,12 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -905,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -947,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1061,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1077,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1157,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1251,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1348,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1526,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1800,26 +1747,37 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1853,7 +1811,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2189,15 +2147,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2263,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2286,1808 +2249,1768 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>536</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
-      </c>
-      <c r="I22" t="s">
-        <v>289</v>
-      </c>
-      <c r="P22" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="28" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="29" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="30" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="31" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="32" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="33" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="34" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="35" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="38" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="40" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4095,41 +4018,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="41" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4137,127 +4060,128 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="43" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147CE21-8847-43E1-9A5C-F9060B59662C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
   <si>
     <t>日本語</t>
   </si>
@@ -1750,6 +1750,144 @@
   </si>
   <si>
     <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Menu~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官メニュー~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1800,13 +1938,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2148,11 +2289,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2448,1734 +2587,1830 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>271</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>272</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+      <c r="E25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>537</v>
+      </c>
+      <c r="B27" t="s">
+        <v>539</v>
+      </c>
+      <c r="E27" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>374</v>
+        <v>276</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q32" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R32" s="1" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="V32" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>386</v>
+        <v>288</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>388</v>
+        <v>289</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>395</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>400</v>
+        <v>301</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>402</v>
+        <v>303</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>428</v>
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>317</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>440</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>447</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>448</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>449</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>450</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>455</v>
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>456</v>
+        <v>345</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>457</v>
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>458</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>459</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>460</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>461</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>466</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>467</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>472</v>
+        <v>359</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>473</v>
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>476</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>477</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>478</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>482</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>488</v>
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>489</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>490</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>492</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>493</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>496</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E41" s="3" t="s">
-        <v>497</v>
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>499</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>501</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>502</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>505</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>507</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>512</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>515</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1" t="s">
-        <v>517</v>
-      </c>
+      <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>520</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>523</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>524</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>526</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>528</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>529</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>530</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>532</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1" t="s">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>535</v>
       </c>
     </row>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2BE99-CFE9-4654-AC84-61216663D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="570">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,50 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +952,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +994,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1108,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1124,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1204,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1298,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1395,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1573,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,37 +1847,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1800,18 +1896,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2147,20 +2246,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V52"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2226,7 +2320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2249,582 +2343,561 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -2835,161 +2908,165 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>221</v>
       </c>
@@ -3020,7 +3097,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
@@ -3041,1147 +3118,1270 @@
       <c r="H18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B23" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="E23" t="s">
         <v>291</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I23" t="s">
         <v>292</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="P23" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>294</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="B24" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="E24" t="s">
         <v>296</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>297</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="B25" t="s">
         <v>298</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="E25" t="s">
         <v>299</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="B27" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E27" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H26" s="1" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>374</v>
+        <v>308</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q32" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="R32" s="1" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="V32" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>386</v>
+        <v>321</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>388</v>
+        <v>322</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>400</v>
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>402</v>
+        <v>337</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>428</v>
+        <v>349</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>430</v>
+        <v>351</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>435</v>
+        <v>357</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>437</v>
+        <v>359</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>439</v>
+        <v>361</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>442</v>
+        <v>363</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>444</v>
+        <v>365</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>445</v>
+        <v>367</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>447</v>
+        <v>369</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>451</v>
+        <v>374</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>452</v>
+        <v>375</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>455</v>
+        <v>377</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>457</v>
+        <v>379</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>458</v>
+        <v>381</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>466</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>471</v>
+        <v>391</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>473</v>
+        <v>393</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>482</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>487</v>
+        <v>405</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3" t="s">
-        <v>488</v>
+      <c r="D40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>496</v>
+        <v>419</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3" t="s">
-        <v>497</v>
+      <c r="D41" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>505</v>
+        <v>447</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>449</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>512</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>515</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1" t="s">
-        <v>517</v>
-      </c>
+      <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>520</v>
+        <v>461</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>523</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>532</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1" t="s">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
         <v>535</v>
       </c>
+      <c r="P49" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147CE21-8847-43E1-9A5C-F9060B59662C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0CE207-C421-40F7-A9D8-02E6A137D6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2291,7 +2291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0CE207-C421-40F7-A9D8-02E6A137D6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3518F-A571-4B0C-9716-E5F071844D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2291,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3518F-A571-4B0C-9716-E5F071844D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8420-19D2-4A3A-AE6D-42397A25A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="557">
   <si>
     <t>日本語</t>
   </si>
@@ -1790,10 +1790,6 @@
   </si>
   <si>
     <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1888,6 +1884,14 @@
   </si>
   <si>
     <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerReportDesc</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2291,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2591,15 +2595,15 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3363,10 +3367,10 @@
         <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -3374,10 +3378,10 @@
         <v>543</v>
       </c>
       <c r="B25" t="s">
+        <v>553</v>
+      </c>
+      <c r="E25" t="s">
         <v>554</v>
-      </c>
-      <c r="E25" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -3393,7 +3397,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="B28" t="s">
         <v>540</v>
@@ -3404,13 +3408,13 @@
     </row>
     <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -3418,10 +3422,10 @@
         <v>543</v>
       </c>
       <c r="B30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" t="s">
         <v>546</v>
-      </c>
-      <c r="E30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3518F-A571-4B0C-9716-E5F071844D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,50 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -952,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -994,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1108,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1124,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1204,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1298,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1395,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1573,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1847,33 +1747,175 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Menu~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官メニュー~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1902,15 +1944,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2246,15 +2288,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2320,7 +2367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2343,1875 +2390,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>549</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>553</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>554</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="B30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>326</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>350</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>352</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>364</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>366</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>378</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>380</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>392</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>394</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>406</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>408</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>420</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>422</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>434</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>436</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>448</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>450</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>462</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>464</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>476</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>478</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>489</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>491</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>505</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>507</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>521</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>522</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4219,41 +4255,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>531</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4261,127 +4297,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3518F-A571-4B0C-9716-E5F071844D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="571">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,53 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>CallCoronerReportDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +955,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +997,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1111,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1127,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1207,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1301,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1398,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1576,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,175 +1850,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerMenuTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Menu~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官メニュー~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~の機能のメニューを開きます。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open menu of function of ~b~Coroner~s~.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1944,15 +1905,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2288,20 +2249,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2367,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2390,1864 +2346,1887 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>549</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>550</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>538</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>544</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>546</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>316</v>
+        <v>350</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
+        <v>352</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>364</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>332</v>
+        <v>366</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>378</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>346</v>
+        <v>380</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>392</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
+        <v>394</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>406</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>374</v>
+        <v>408</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>386</v>
+        <v>420</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>388</v>
+        <v>422</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>400</v>
+        <v>434</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
+        <v>436</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>414</v>
+        <v>448</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>450</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>428</v>
+        <v>462</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>430</v>
+        <v>464</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>476</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>444</v>
+        <v>478</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>489</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>457</v>
+        <v>491</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>505</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>507</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>487</v>
+        <v>521</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
-        <v>488</v>
+      <c r="E48" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4255,41 +4234,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
-        <v>497</v>
+      <c r="E49" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4297,128 +4276,127 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8420-19D2-4A3A-AE6D-42397A25A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A6EF4-95A3-4B77-89C9-0AAF479EB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
   <si>
     <t>日本語</t>
   </si>
@@ -1891,7 +1891,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CallCoronerReportDesc</t>
+    <t>CallCoronerDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2296,7 +2300,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3419,7 +3423,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B30" t="s">
         <v>545</v>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8420-19D2-4A3A-AE6D-42397A25A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="557">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,53 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-  </si>
-  <si>
-    <t>CallCoronerReportDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -955,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -997,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1111,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1127,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1207,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1301,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1398,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1576,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1850,33 +1747,179 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Menu~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官メニュー~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerReportDesc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1905,15 +1948,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2249,15 +2292,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2323,7 +2371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2346,1887 +2394,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>327</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>351</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>353</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>365</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>367</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>379</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>381</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>393</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>395</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>407</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>409</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>421</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>423</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>435</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>437</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>449</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>451</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>463</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>465</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>477</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>479</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>490</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>492</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>506</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>508</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>522</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>523</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4234,41 +4259,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>532</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4276,127 +4301,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8420-19D2-4A3A-AE6D-42397A25A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,56 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>CallCoronerDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +958,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +1000,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1114,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1130,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1210,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1304,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1401,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1579,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,179 +1853,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerMenuTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Menu~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官メニュー~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~の機能のメニューを開きます。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open menu of function of ~b~Coroner~s~.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerReportDesc</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1948,15 +1908,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2292,20 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2371,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2394,1864 +2349,1887 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>543</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>316</v>
+        <v>351</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>332</v>
+        <v>367</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>379</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>346</v>
+        <v>381</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
+        <v>395</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>374</v>
+        <v>409</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>386</v>
+        <v>421</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>388</v>
+        <v>423</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>400</v>
+        <v>435</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
+        <v>437</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>414</v>
+        <v>449</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>451</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>428</v>
+        <v>463</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>430</v>
+        <v>465</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>477</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>490</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>457</v>
+        <v>492</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>506</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>508</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>487</v>
+        <v>522</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
-        <v>488</v>
+      <c r="E48" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4259,41 +4237,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
-        <v>497</v>
+      <c r="E49" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4301,128 +4279,127 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A6EF4-95A3-4B77-89C9-0AAF479EB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501CA6-AC66-4D84-9759-1477C8561D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1891,11 +1891,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CallCoronerDesc</t>
+    <t>OpenCoronerReportItemDesc</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenCoronerReportItemDesc</t>
+    <t>CallCoronerItemDesc</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>544</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B30" t="s">
         <v>545</v>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A6EF4-95A3-4B77-89C9-0AAF479EB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,56 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-  </si>
-  <si>
-    <t>CallCoronerDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -958,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -1000,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1114,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1130,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1210,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1304,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1401,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1579,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1853,33 +1747,183 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Menu~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官メニュー~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1908,15 +1952,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,15 +2296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2349,1887 +2398,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>557</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>408</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>410</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>422</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>424</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>452</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>466</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>478</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>480</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>491</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>507</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>509</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>523</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>524</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4237,41 +4263,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>533</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4279,127 +4305,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A6EF4-95A3-4B77-89C9-0AAF479EB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,56 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +958,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +1000,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1114,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1130,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1210,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1304,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1401,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1579,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,183 +1853,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerMenuTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Menu~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官メニュー~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~の機能のメニューを開きます。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open menu of function of ~b~Coroner~s~.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1952,15 +1908,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2296,20 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2375,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2398,1864 +2349,1887 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>557</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>316</v>
+        <v>351</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>332</v>
+        <v>367</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>379</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>346</v>
+        <v>381</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
+        <v>395</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>374</v>
+        <v>409</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>386</v>
+        <v>421</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>388</v>
+        <v>423</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>400</v>
+        <v>435</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
+        <v>437</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>414</v>
+        <v>449</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>451</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>428</v>
+        <v>463</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>430</v>
+        <v>465</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>477</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>490</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>457</v>
+        <v>492</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>506</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>508</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>487</v>
+        <v>522</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
-        <v>488</v>
+      <c r="E48" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4263,41 +4237,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
-        <v>497</v>
+      <c r="E49" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4305,128 +4279,127 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501CA6-AC66-4D84-9759-1477C8561D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,56 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -958,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -1000,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1114,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1130,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1210,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1304,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1401,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1579,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1853,33 +1747,183 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Menu~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官メニュー~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1908,15 +1952,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,15 +2296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2349,1887 +2398,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>555</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>408</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>410</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>422</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>424</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>452</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>466</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>478</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>480</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>491</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>507</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>509</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>523</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>524</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4237,41 +4263,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>533</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4279,127 +4305,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501CA6-AC66-4D84-9759-1477C8561D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,56 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +958,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +1000,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1114,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1130,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1210,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1304,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1401,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1579,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,183 +1853,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerMenuTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Menu~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官メニュー~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~の機能のメニューを開きます。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open menu of function of ~b~Coroner~s~.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1952,15 +1908,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2296,20 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2375,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2398,1864 +2349,1887 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>557</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>316</v>
+        <v>351</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>332</v>
+        <v>367</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>379</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>346</v>
+        <v>381</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
+        <v>395</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>374</v>
+        <v>409</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>386</v>
+        <v>421</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>388</v>
+        <v>423</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>400</v>
+        <v>435</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
+        <v>437</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>414</v>
+        <v>449</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>451</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>428</v>
+        <v>463</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>430</v>
+        <v>465</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>477</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>490</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>457</v>
+        <v>492</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>506</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>508</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>487</v>
+        <v>522</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
-        <v>488</v>
+      <c r="E48" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4263,41 +4237,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
-        <v>497</v>
+      <c r="E49" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4305,128 +4279,127 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501CA6-AC66-4D84-9759-1477C8561D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BA7DD-CA8C-4FA5-9211-2218E525ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
   <si>
     <t>日本語</t>
   </si>
@@ -1853,20 +1853,6 @@
   </si>
   <si>
     <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Menu~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官メニュー~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2300,7 +2286,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3371,10 +3357,10 @@
         <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -3382,10 +3368,10 @@
         <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -3401,7 +3387,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s">
         <v>540</v>
@@ -3412,7 +3398,7 @@
     </row>
     <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>544</v>
@@ -3423,7 +3409,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B30" t="s">
         <v>545</v>

--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BA7DD-CA8C-4FA5-9211-2218E525ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,56 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -958,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -1000,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1114,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1130,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1210,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1304,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1401,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1579,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1853,33 +1747,169 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1908,15 +1938,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,15 +2282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2349,1887 +2384,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>549</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>551</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>554</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>408</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>410</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>422</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>424</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>452</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>466</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>478</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>480</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>491</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>507</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>509</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>523</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>524</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4237,41 +4249,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>533</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4279,127 +4291,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BA7DD-CA8C-4FA5-9211-2218E525ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
   <si>
     <t>日本語</t>
   </si>
@@ -101,6 +97,9 @@
     <t>Menu</t>
   </si>
   <si>
+    <t>메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -149,6 +148,9 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
+    <t>언어 설정 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -197,6 +199,9 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
+    <t>라바콘 메뉴</t>
+  </si>
+  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -242,6 +247,9 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
+    <t>차량통제 메뉴</t>
+  </si>
+  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -266,6 +274,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -326,6 +343,9 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
+    <t>라바콘 종류</t>
+  </si>
+  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -410,6 +430,9 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
+    <t>라바콘 위치 지정 시작</t>
+  </si>
+  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -452,6 +475,9 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
+    <t>라바콘 위치 리셋</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -492,6 +518,9 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
+  </si>
+  <si>
+    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -519,6 +548,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -597,6 +629,9 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
+    <t>라바콘 초기화</t>
+  </si>
+  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -639,6 +674,9 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
+    <t>라바콘 설치</t>
+  </si>
+  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -681,6 +719,9 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
+    <t>라바콘 챙기기</t>
+  </si>
+  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -723,6 +764,9 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
+    <t>라바콘 제거</t>
+  </si>
+  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -765,6 +809,9 @@
     <t>Più vicino</t>
   </si>
   <si>
+    <t>근처 라바콘</t>
+  </si>
+  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -807,6 +854,9 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
+    <t>모든 라바콘</t>
+  </si>
+  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -840,6 +890,56 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>언어선택</t>
+  </si>
+  <si>
+    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -858,6 +958,9 @@
     <t>Algoritmo</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -897,6 +1000,9 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
+    <t>교통통제 메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1008,15 +1114,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1130,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1210,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1304,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1401,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~s~ ~o~pylon~s~ settings.
+    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t>Setzt die Pylonen-Einstellungen zurück.
+    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t>Ripristina le impostazioni del cono.
+    <t xml:space="preserve">Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1473,156 +1579,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t>変更したい~b~言語~s~を選択してください。
+    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t>Select ~b~the Language~s~ which you want.
+    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Wähle ~b~die Sprache~s~ die du möchtest.
+    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t>Wybierz ~b~język~s~, którego chcesz używać.
+    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t>Escolha ~b~o idioma~s~ que você quer.
+    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t>Elegir ~b~el idioma~s~, que quieres usar.
+    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t>Vyberte ~b~jazyk~s~, který chcete.
+    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t>Vælg ~b~Sproget~s~ du vil bruge.
+    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t>Välj  ~b~språket~s~ du vill ha.
+    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t>Valitse ~b~Kieli~s~ Jonka haluat.
+    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t>~h~~y~【注意】~s~~h~
+    <t xml:space="preserve">~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t>~h~~y~ 【注意】 ~s~~h~
+    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATTENTION~s~~h~
+    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t>~h~~y~UWAGA~s~~h~
+    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ATENÇÃO~s~~h~
+    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ВНИМАНИЕ~s~~h~
+    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ ATENCIÓN ~s~~h~
+    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t>~h~~y~DİKKAT~s~~h~
+    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t>~h~~y~POZOR~s~~h~
+    <t xml:space="preserve">~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t>~h~~y~ADVARNING~s~~h~
+    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t>~h~~y~VARNING~s~~h~
+    <t xml:space="preserve">~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t>~h~~y~HUOMIO~s~~h~
+    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t>~h~~y~DĖMĖSIO~s~~h~
+    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t>使用する~b~言語~s~を変更します。
+    <t xml:space="preserve">使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t>Change ~b~Language~s~ to use.
+    <t xml:space="preserve">Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>~b~Sprache~s~ ändern.
+    <t xml:space="preserve">~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Cambia ~b~Lingua~s~ da usare.
+    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t>Kullanmak istediğin ~b~dili~s~ seç.
+    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t>Pakeisti naudojamą ~b~kalbą~s~
+    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1747,169 +1853,33 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
-  </si>
-  <si>
-    <t>PylonCountItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerMenuTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~b~検視官~s~の機能のメニューを開きます。</t>
-    <rPh sb="3" eb="6">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Open menu of function of ~b~Coroner~s~.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1938,15 +1908,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2282,20 +2252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2361,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2384,1864 +2349,1887 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>553</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>555</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>554</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>316</v>
+        <v>351</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>332</v>
+        <v>367</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>379</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>346</v>
+        <v>381</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
+        <v>395</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>374</v>
+        <v>409</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>386</v>
+        <v>421</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>388</v>
+        <v>423</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>400</v>
+        <v>435</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>402</v>
+        <v>437</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>414</v>
+        <v>449</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>451</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>428</v>
+        <v>463</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>430</v>
+        <v>465</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>477</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>490</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>457</v>
+        <v>492</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>506</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>508</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>487</v>
+        <v>522</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
-        <v>488</v>
+      <c r="E48" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4249,41 +4237,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
-        <v>497</v>
+      <c r="E49" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4291,128 +4279,127 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BA7DD-CA8C-4FA5-9211-2218E525ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="556">
   <si>
     <t>日本語</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu </t>
   </si>
   <si>
@@ -148,9 +149,6 @@
     <t>Seleziona lingua</t>
   </si>
   <si>
-    <t>언어 설정 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wybór języka </t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>Menù cono stradale</t>
   </si>
   <si>
-    <t>라바콘 메뉴</t>
-  </si>
-  <si>
     <t>Menu pachołków</t>
   </si>
   <si>
@@ -247,9 +242,6 @@
     <t>Controllo del traffico</t>
   </si>
   <si>
-    <t>차량통제 메뉴</t>
-  </si>
-  <si>
     <t>Kontrola ruchu</t>
   </si>
   <si>
@@ -274,15 +266,6 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
-    <t>CoronerMenuTitle</t>
-  </si>
-  <si>
-    <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
-  </si>
-  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>Tipo di blocco</t>
   </si>
   <si>
-    <t>라바콘 종류</t>
-  </si>
-  <si>
     <t>Rodzaj ~p~pachołków~s~</t>
   </si>
   <si>
@@ -430,9 +410,6 @@
     <t>Impostare la posizione iniziale del blocco</t>
   </si>
   <si>
-    <t>라바콘 위치 지정 시작</t>
-  </si>
-  <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji początkowej</t>
   </si>
   <si>
@@ -475,9 +452,6 @@
     <t>Modifica per le posizioni cono stradale</t>
   </si>
   <si>
-    <t>라바콘 위치 리셋</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zmień pozycję ~o~pachołków~s~ </t>
   </si>
   <si>
@@ -518,9 +492,6 @@
   </si>
   <si>
     <t>Imposta la posizione finale del cono stradale</t>
-  </si>
-  <si>
-    <t>라바콘 위치 지정 끝내기</t>
   </si>
   <si>
     <t>Ustaw ~o~pachołki~s~ w pozycji końcowej</t>
@@ -548,9 +519,6 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
-    <t>PylonCountItem</t>
-  </si>
-  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -629,9 +597,6 @@
     <t xml:space="preserve">Ripristina </t>
   </si>
   <si>
-    <t>라바콘 초기화</t>
-  </si>
-  <si>
     <t>~r~Resetuj~s~</t>
   </si>
   <si>
@@ -674,9 +639,6 @@
     <t xml:space="preserve">Posiziona blocco stradale </t>
   </si>
   <si>
-    <t>라바콘 설치</t>
-  </si>
-  <si>
     <t>~b~Postaw~s~ ~o~pachołek~s~</t>
   </si>
   <si>
@@ -719,9 +681,6 @@
     <t>Trasporta cono stradale</t>
   </si>
   <si>
-    <t>라바콘 챙기기</t>
-  </si>
-  <si>
     <t>~b~Weź~s~  ~o~pachołek~s~</t>
   </si>
   <si>
@@ -764,9 +723,6 @@
     <t xml:space="preserve">Elimina cono stradale </t>
   </si>
   <si>
-    <t>라바콘 제거</t>
-  </si>
-  <si>
     <t>~r~Usuń~s~ ~o~Pachołek~s~</t>
   </si>
   <si>
@@ -809,9 +765,6 @@
     <t>Più vicino</t>
   </si>
   <si>
-    <t>근처 라바콘</t>
-  </si>
-  <si>
     <t>Najbliższy</t>
   </si>
   <si>
@@ -854,9 +807,6 @@
     <t xml:space="preserve">Tutti coni stradale </t>
   </si>
   <si>
-    <t>모든 라바콘</t>
-  </si>
-  <si>
     <t>Wszystkie</t>
   </si>
   <si>
@@ -890,56 +840,6 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
-    <t>언어선택</t>
-  </si>
-  <si>
-    <t>Vyberte ~b~Jazyk~s~, ktery chcete pouzivat</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItem</t>
-  </si>
-  <si>
-    <t>OpenCoronerMenuItemDesc</t>
-  </si>
-  <si>
-    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
-  </si>
-  <si>
-    <t>CallCoronerItem</t>
-  </si>
-  <si>
-    <t>~b~検視官~s~を要請</t>
-  </si>
-  <si>
-    <t>Request ~b~Coroner~s~ Unit</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItem</t>
-  </si>
-  <si>
-    <t>~b~検視官レポート~s~を開く</t>
-  </si>
-  <si>
-    <t>Open ~b~Coroner Report~s~</t>
-  </si>
-  <si>
-    <t>CallCoronerItemDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~検視官~s~を要請します。
-~r~死体~s~が無い場合は要請できません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ~b~Coroner~s~.
-But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
-  </si>
-  <si>
-    <t>OpenCoronerReportItemDesc</t>
-  </si>
-  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -958,9 +858,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algorytm </t>
   </si>
   <si>
@@ -1000,9 +897,6 @@
     <t>Menù di controllo del traffico</t>
   </si>
   <si>
-    <t>교통통제 메뉴</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Menu Kontroli Ruchu</t>
   </si>
   <si>
@@ -1114,15 +1008,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1130,38 +1024,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1210,91 +1104,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
+    <t>~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
+    <t>指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
+    <t>Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
+    <t>Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifica la posizione dei coni stradale.
+    <t>Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
+    <t>Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
+    <t>Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
+    <t>Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
+    <t>~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
+    <t>Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1304,55 +1198,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
+    <t>~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
+    <t>一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Set for ~o~pylons~s~ count.
+    <t>Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostato per il conteggio di cono stradale
+    <t>Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość ~o~pachołków~s~
+    <t>Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
+    <t>Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
+    <t>Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
+    <t>Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
+    <t>~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
+    <t>Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1401,55 +1295,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reset~s~ ~o~pylon~s~ settings.
+    <t>~r~Reset~s~ ~o~pylon~s~ settings.
 (~y~No delete~s~ existing pylons.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setzt die Pylonen-Einstellungen zurück.
+    <t>Setzt die Pylonen-Einstellungen zurück.
  Bestehende Pylonen werden bei diesem Prozess ~y~nicht~s~ gelöscht.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ripristina le impostazioni del cono.
+    <t>Ripristina le impostazioni del cono.
  Nessuna eliminazione dei coni esistenti.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Resetuj~s~ ustawienia ~o~pachołków~s~
+    <t>~r~Resetuj~s~ ustawienia ~o~pachołków~s~
 (~y~Nie usuwa~s~ istniejących pachołków.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Redefine~s~ as configurações do ~o~cone~s~
+    <t>~r~Redefine~s~ as configurações do ~o~cone~s~
 (~y~Não apaga~s~ cones que já existem.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
+    <t>~r ~Сбросьте~s ~ ~o~настройки конусов ~s~.
 (~y~Не удалять~s~ существующие конусные знаки.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
+    <t>~r~Reiniciar~s~ ajustes de los ~o~pilones~s~.
 (~y~Esto no elimina~s~ los pilones existentes.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
+    <t>~o~Dubaların~s~ ayarlarını ~r~sıfırlar~s~.
 (Mevcut dubaları ~y~silmez~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
+    <t>~r~Odstranis~s~ ~o~prave pokladane~s~ dopravni kuzele.
 (~y~Zadne odstraneni~s~ existujicich dopravnich kuzelu.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Återställ~s~ ~o~kon~s~ inställningar.
+    <t>~r~Återställ~s~ ~o~kon~s~ inställningar.
 (Befintliga koner ~y~raderas ej~s~.)</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
+    <t>~r~Perrinkti~s~ ~o~kūgių~s~ nustatymus
 (~y~Neištrina~s~ esančių kūgių)</t>
   </si>
   <si>
@@ -1579,156 +1473,156 @@
     <t>LanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">変更したい~b~言語~s~を選択してください。
+    <t>変更したい~b~言語~s~を選択してください。
 ~g~カスタム翻訳~s~は~o~「Custom」~s~を選択してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">請選擇你需要的 ~b~ 語言 ~s~ 。
+    <t>請選擇你需要的 ~b~ 語言 ~s~ 。
 如果你希望使用 ~g~ 自行編譯的翻譯 ~s~ , 請選擇 ~o~ "Custom" ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select ~b~the Language~s~ which you want.
+    <t>Select ~b~the Language~s~ which you want.
 If you want to change ~g~Custom Translation~s~, please select ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wähle ~b~die Sprache~s~ die du möchtest.
+    <t>Wähle ~b~die Sprache~s~ die du möchtest.
 Falls du ~g~Zufalls Übersetzung~s~, bitte wähle ~o~"Custom''~s~ aus.</t>
   </si>
   <si>
     <t>Lingua Menù</t>
   </si>
   <si>
-    <t xml:space="preserve">Wybierz ~b~język~s~, którego chcesz używać.
+    <t>Wybierz ~b~język~s~, którego chcesz używać.
 Jeżeli chcesz zmienić ~g~niestandardowe tłumaczenie~s~, proszę wybierz ~o~"Niestandardowe"~s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolha ~b~o idioma~s~ que você quer.
+    <t>Escolha ~b~o idioma~s~ que você quer.
 Se você quer mudar para ~g~Traduções customizadas~s~, selecione ~o~"Customizado"~s~.</t>
   </si>
   <si>
     <t>Описание языкового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir ~b~el idioma~s~, que quieres usar.
+    <t>Elegir ~b~el idioma~s~, que quieres usar.
 Si quieres cambiar ~g~traducción personalizada~s~, elige ~o~"personalizada"~s.</t>
   </si>
   <si>
     <t>~g~Kullanmak istediğin dili~s~ seç.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vyberte ~b~jazyk~s~, který chcete.
+    <t>Vyberte ~b~jazyk~s~, který chcete.
 Chcete-li zmenit ~g~Vlastní preklad~s~, vyberte ~na~"Vlastní"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vælg ~b~Sproget~s~ du vil bruge.
+    <t>Vælg ~b~Sproget~s~ du vil bruge.
 Hvis du gerne vil bruge ~g~Brugerdefineret Oversættelse~s~, vælg venligst ~o~"Custom"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Välj  ~b~språket~s~ du vill ha.
+    <t>Välj  ~b~språket~s~ du vill ha.
 Om du vill ändra ~g~Anpassad Översättning~s~, Välj ~o~"Anpassad"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Valitse ~b~Kieli~s~ Jonka haluat.
+    <t>Valitse ~b~Kieli~s~ Jonka haluat.
 Jos haluat vaihtaa ~g~Mukautettu käännös~s~, valitse ~o~"Mukautettu"~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
+    <t>Pasirinkite ~b~kalbą~s~ kurią norite naudoti..
 Jeigu norite pakeisti ~g~atskirą vertimą~s~, prašome pasirinkti ~o~"Atskiras"~s~.</t>
   </si>
   <si>
     <t>CustomLanguageMenuDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~【注意】~s~~h~
+    <t>~h~~y~【注意】~s~~h~
 ~r~割り当てられていないキーの翻訳には自動的に英語翻訳が適用されます。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ 【注意】 ~s~~h~
+    <t>~h~~y~ 【注意】 ~s~~h~
 ~r~ 尚未翻譯之詞語會自動使用英語之翻譯。 ~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~The key which has no translate will assign  English Translation automatically.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATTENTION~s~~h~
+    <t>~h~~y~ATTENTION~s~~h~
 ~r~Wörter die noch nicht von unserem Übersetzungs-Team übersetzt worden sind, werden automatisch durch die englischen Wörter ersetzt.~s~</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua personalizzata Menu </t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~UWAGA~s~~h~
+    <t>~h~~y~UWAGA~s~~h~
 ~r~Wyrazy bez gotowego tłumaczenia bedą automatycznie używać słów angielskich.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ATENÇÃO~s~~h~
+    <t>~h~~y~ATENÇÃO~s~~h~
 ~r~As palavras que não foram traduzidas serão automaticamente mudadas para o Inglês.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ВНИМАНИЕ~s~~h~
+    <t>~h~~y~ВНИМАНИЕ~s~~h~
 ~r~ Клавиша, у которой нет перевода, автоматически назначит перевод на английский.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ ATENCIÓN ~s~~h~
+    <t>~h~~y~ ATENCIÓN ~s~~h~
 ~r~Palabras que no tienen traducción, usarán la traducción al ingles~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DİKKAT~s~~h~
+    <t>~h~~y~DİKKAT~s~~h~
 ~r~Çevirilmeyen satırlar otomatik olarak İngilizce ayarlanır.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~POZOR~s~~h~
+    <t>~h~~y~POZOR~s~~h~
 ~r~Custom, se dava automaticky do anglickeho prekladu. Pokud vy si ho sami neupravite.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~ADVARNING~s~~h~
+    <t>~h~~y~ADVARNING~s~~h~
 ~r~Nøglen har ingen oversættelse, vil automatisk tildele engelsk oversættelse.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~VARNING~s~~h~
+    <t>~h~~y~VARNING~s~~h~
 ~r~Orden som inte har någon översättning får engelsk översättning automatiskt.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~HUOMIO~s~~h~
+    <t>~h~~y~HUOMIO~s~~h~
 ~r~Avain, jolla ei ole käännöstä, määrittää englanninkielisen käännöksen automaattisesti.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~h~~y~DĖMĖSIO~s~~h~
+    <t>~h~~y~DĖMĖSIO~s~~h~
 ~r~Šis klavišas kuris neturi vertimo priskirs Anglišką vertimą automatiškai.~s~</t>
   </si>
   <si>
     <t>LanguageSelectItemDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">使用する~b~言語~s~を変更します。
+    <t>使用する~b~言語~s~を変更します。
 これは~g~DekoKiyo作のプラグインのみ~s~に適用されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Change ~b~Language~s~ to use.
+    <t>Change ~b~Language~s~ to use.
 This only applies to ~g~plugins created by DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Sprache~s~ ändern.
+    <t>~b~Sprache~s~ ändern.
 Diese Option funktioniert nur für ~g~plugins von DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambia ~b~Lingua~s~ da usare.
+    <t>Cambia ~b~Lingua~s~ da usare.
 Questo vale solo per ~g~plugin creati da DekoKiyo~s~</t>
   </si>
   <si>
     <t>Mude o ~o~Idioma do~s~'s ~b~DynamicLSPDFR~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kullanmak istediğin ~b~dili~s~ seç.
+    <t>Kullanmak istediğin ~b~dili~s~ seç.
 Sadece ~g~DekoKiyo'nun eklentilerini kapsar~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
+    <t>Zmente ~b~Jazyk~s~ ktery chcete pouzivat.
 To plati pouze pro ~g~pluginy vytvorene DekoKiyo~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakeisti naudojamą ~b~kalbą~s~
+    <t>Pakeisti naudojamą ~b~kalbą~s~
 Tai taikoma tik ~g~DekoKiyo modifikacijom~s~</t>
   </si>
   <si>
@@ -1853,33 +1747,169 @@
   </si>
   <si>
     <t>Vertimo raida: {0}</t>
+  </si>
+  <si>
+    <t>PylonCountItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerMenuTitle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1908,15 +1938,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,15 +2282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2349,1887 +2384,1864 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>549</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>551</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>554</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>408</v>
+        <v>371</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>410</v>
+        <v>373</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>422</v>
+        <v>385</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>424</v>
+        <v>387</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>452</v>
+        <v>415</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>466</v>
+        <v>429</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>478</v>
+        <v>441</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>480</v>
+        <v>443</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>491</v>
+        <v>454</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" ht="54" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>507</v>
+        <v>470</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>509</v>
+        <v>472</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>523</v>
+        <v>486</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
-        <v>524</v>
+      <c r="E48" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4237,41 +4249,41 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
-        <v>533</v>
+      <c r="E49" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4279,127 +4291,128 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Menu.xlsx
+++ b/ja/Menu.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BA7DD-CA8C-4FA5-9211-2218E525ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -266,6 +262,15 @@
     <t>Eismo kontrolė</t>
   </si>
   <si>
+    <t>CoronerMenuTitle</t>
+  </si>
+  <si>
+    <t>検視官メニュー</t>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
     <t>PylonMenuItem</t>
   </si>
   <si>
@@ -519,6 +524,9 @@
     <t>Nustatyti ~o~kūgių~s~ baigtinę vietą</t>
   </si>
   <si>
+    <t>PylonCountItem</t>
+  </si>
+  <si>
     <t>~o~パイロン~s~の本数</t>
   </si>
   <si>
@@ -840,6 +848,56 @@
     <t>Select ~b~Language~s~ to use</t>
   </si>
   <si>
+    <t>OpenCoronerMenuItem</t>
+  </si>
+  <si>
+    <t>OpenCoronerMenuItemDesc</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~の機能のメニューを開きます。</t>
+  </si>
+  <si>
+    <t>Open menu of function of ~b~Coroner~s~.</t>
+  </si>
+  <si>
+    <t>CallCoronerItem</t>
+  </si>
+  <si>
+    <t>~b~検視官~s~を要請</t>
+  </si>
+  <si>
+    <t>Request ~b~Coroner~s~ Unit</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItem</t>
+  </si>
+  <si>
+    <t>~b~検視官レポート~s~を開く</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~</t>
+  </si>
+  <si>
+    <t>CallCoronerItemDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~検視官~s~を要請します。
+~r~死体~s~が無い場合は要請できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ~b~Coroner~s~.
+But you can't request it there are no ~r~dead bodiesśs~ nearby you.</t>
+  </si>
+  <si>
+    <t>OpenCoronerReportItemDesc</t>
+  </si>
+  <si>
+    <t>検視官の情報がある~b~検視官レポート~s~を開きます。</t>
+  </si>
+  <si>
+    <t>Open ~b~Coroner Report~s~ which contains the coroner's information.</t>
+  </si>
+  <si>
     <t>AlgorithmItem</t>
   </si>
   <si>
@@ -1008,15 +1066,15 @@
     <t>PylonFreezeItemDesc</t>
   </si>
   <si>
-    <t>有効だと~o~パイロン~s~が設置された場所に固定されます。
+    <t xml:space="preserve">有効だと~o~パイロン~s~が設置された場所に固定されます。
 固定されていない場合、当たると動いたり、倒れます。</t>
   </si>
   <si>
-    <t>啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
+    <t xml:space="preserve">啓動時，  ~o~ 三角錐 ~s~ 將會被固定，無法被撞擊
 如未啓動，三角錐遭到撞擊時將會被撞倒。</t>
   </si>
   <si>
-    <t>When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
+    <t xml:space="preserve">When enabled, the ~o~pylon ~s~ will be anchored to where it was placed.
 If it's not enabled, it will move or fall when hit.</t>
   </si>
   <si>
@@ -1024,38 +1082,38 @@
 Falls diese Funktion ~o~nicht~s~ aktiviert ist, wird der Pylon umfallen. </t>
   </si>
   <si>
-    <t>Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
+    <t xml:space="preserve">Quando abilitato, il cono sarà ancorato al punto in cui è stato posizionato.
  Se non è abilitato, si muoverà o cadrà quando viene colpito.</t>
   </si>
   <si>
-    <t>Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
+    <t xml:space="preserve">Po włączeniu, ~o~pachołek ~s~ będzie zakotwiczony w miejscu, w którym został umieszczony.
 Jeśli ta opcja nie jest włączona, będzie się poruszał lub spadnie kiedy uderzony.</t>
   </si>
   <si>
-    <t>Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
+    <t xml:space="preserve">Quando habilitados, os ~o~cones ~s~ ficarão grudados nos lugares em que foram postos.
 Quando não está habilitado, os cones se moverão e cairão quando atingidos.</t>
   </si>
   <si>
-    <t>Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
+    <t xml:space="preserve">Когда этот параметр включен, ~o~конус ~s~ будет закреплен на том месте, где он был установлен.
 Если он не включен, то при ударе он сдвинется или упадет.</t>
   </si>
   <si>
-    <t>Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
+    <t xml:space="preserve">Cuando está habilitado, ~o~pilones~s~ se anclará a la ubicación donde se colocó.
 Si no está habilitado, se moverá o caerá cuando sea golpeado.</t>
   </si>
   <si>
-    <t>Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
+    <t xml:space="preserve">Bu özelliği aktifleştirirseniz, ~o~dubalar~s~ devrilmez.
 Eğer devre dışı bırakırsanız, çarptığınızda devrilir.</t>
   </si>
   <si>
     <t>Pokud tohle neni, ~o~povoleno ~s~ tak NPC mohou je schodit ci prejet.</t>
   </si>
   <si>
-    <t>När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
+    <t xml:space="preserve">När denna är aktiverad, kommer ~o~konen ~s~ bli fast satt där den placeras.
 Om denna inte är aktiverad kommer konen kunna ramla och flyttas.</t>
   </si>
   <si>
-    <t>Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
+    <t xml:space="preserve">Kai įjungta, ~o~kūgiai~s~ sustings savo vietoje..
 Jeigu jie nėra sustingdinti, jie galės laisvai pervirsti, nukristi.</t>
   </si>
   <si>
@@ -1104,91 +1162,91 @@
     <t>SetPylonPosesDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置位置を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置位置を指定します。
 タブの背景で状態を示しています。
 ~y~黄色~s~: 未指定
 ~g~緑色~s~: 指定済み
 ~r~赤色~s~: 指定中</t>
   </si>
   <si>
-    <t>指定 ~o~ 三角錐 ~s~ 的位置。
+    <t xml:space="preserve">指定 ~o~ 三角錐 ~s~ 的位置。
 選項卡的背景指示狀態。（此句翻譯將會於下次更新時予以修正）
 ~y~ 黃色 ~s~: 無
 ~g~ 綠色 ~s~: 被選擇
 ~r~ 紅色 ~s~: 選擇中</t>
   </si>
   <si>
-    <t>Specifies the place positions of the ~o~pylons~s~.
+    <t xml:space="preserve">Specifies the place positions of the ~o~pylons~s~.
 The background of the tab indicates the state.
 ~y~Yellow ~s~: None
 ~g~Green ~s~: Specified
 ~r~Red ~s~: Specifying now</t>
   </si>
   <si>
-    <t>Wählt die Position der ~o~Pylonen~s~ aus.
+    <t xml:space="preserve">Wählt die Position der ~o~Pylonen~s~ aus.
 Die Hintergrundanzeige zeigt den Zustand.
 ~y~Yellow ~s~: Keine
 ~g~Green ~s~: Ausgewählt
 ~r~Red ~s~: Wird ausgewählt</t>
   </si>
   <si>
-    <t>Specifica la posizione dei coni stradale.
+    <t xml:space="preserve">Specifica la posizione dei coni stradale.
  Lo sfondo della scheda indica lo stato.
  ~y~Giallo ~s~: nessuno
  ~g~Verde ~s~: specificato
  ~r~Rosso ~s~: Specificato ora</t>
   </si>
   <si>
-    <t>Podaje pozycję ~o~pachołków~s~.
+    <t xml:space="preserve">Podaje pozycję ~o~pachołków~s~.
 Kolor zakładki oznacza stan:
 ~y~Żółty ~s~: Żaden
 ~g~Zielony ~s~: Określony
 ~r~Czerwony ~s~: Określany</t>
   </si>
   <si>
-    <t>Especifica a posição dos ~o~cones~s~.
+    <t xml:space="preserve">Especifica a posição dos ~o~cones~s~.
 A cor fundo indica o estado.
 ~y~Amarelo ~s~: Nenhum
 ~g~Verde ~s~: Especificado
 ~r~Vermelho ~s~: Especificando agora</t>
   </si>
   <si>
-    <t>Определяет расположение ~o~конусов~s~.
+    <t xml:space="preserve">Определяет расположение ~o~конусов~s~.
 Фон вкладки указывает на состояние.
 ~y~ Желтый ~s~: Отсутствует
 ~g~Зеленый ~s~: Указано
 ~r~Красный ~s~: Уточняем сейчас</t>
   </si>
   <si>
-    <t>Especifica las posiciones del lugar de los ~o~pilones~s~.
+    <t xml:space="preserve">Especifica las posiciones del lugar de los ~o~pilones~s~.
 Color indica estado de los pilones.
 ~y~Amarillo~s~: Ninguno
 ~g~Verde~s~: Especificado
 ~r~Rojo~s~: Especificando ahora</t>
   </si>
   <si>
-    <t>~o~Dubaların~s~ konumunu belirler.
+    <t xml:space="preserve">~o~Dubaların~s~ konumunu belirler.
 Durumun arka plandaki işlemlerini gösterir.
 ~y~Sarı ~s~: Boş
 ~g~Yeşil ~s~: Belirtilmiş
 ~r~Kırmızı ~s~: Belirleniyor</t>
   </si>
   <si>
-    <t>Urcuje umisteni ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Urcuje umisteni ~o~dopravnich kuzelu~s~.
 Pozadi menu oznacuje stav.
 ~y~Zluta ~s~: Zadny
 ~g~Zelena ~s~: Urceno
 ~r~Cervena ~s~: Specifikuje se nyni</t>
   </si>
   <si>
-    <t>Anger platspositionerna för ~o~konerna~s~.
+    <t xml:space="preserve">Anger platspositionerna för ~o~konerna~s~.
 Bakgrundsfärgen indikerar tillståndet.
 ~y~Gul ~s~: Inga
 ~g~Grön ~s~: Specificerad
 ~r~Röd ~s~: Specificerar nu</t>
   </si>
   <si>
-    <t>Nustato ~o~kūgių~s~ dėliojimo vietą
+    <t xml:space="preserve">Nustato ~o~kūgių~s~ dėliojimo vietą
 Fonas nurodo nustatymo statusą.
 ~y~Geltona~s~: Joksai
 ~g~Žalia~s~: Nustatyta
@@ -1198,55 +1256,55 @@
     <t>PylonCountItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設置本数を指定します。
+    <t xml:space="preserve">~o~パイロン~s~の設置本数を指定します。
 現在の本数: {0}</t>
   </si>
   <si>
-    <t>一組 ~o~ 三角錐 ~s~ 的數量
+    <t xml:space="preserve">一組 ~o~ 三角錐 ~s~ 的數量
 目前數量: {0}</t>
   </si>
   <si>
-    <t>Set for ~o~pylons~s~ count.
+    <t xml:space="preserve">Set for ~o~pylons~s~ count.
 Now count: {0}</t>
   </si>
   <si>
-    <t>Gibt die aktuelle Anzahl von platzierten Pylonen an.
+    <t xml:space="preserve">Gibt die aktuelle Anzahl von platzierten Pylonen an.
 Anzahl an Pylonen: {0}</t>
   </si>
   <si>
-    <t>Impostato per il conteggio di cono stradale
+    <t xml:space="preserve">Impostato per il conteggio di cono stradale
  Ora conta: {0}</t>
   </si>
   <si>
-    <t>Ilość ~o~pachołków~s~
+    <t xml:space="preserve">Ilość ~o~pachołków~s~
 Obecna ilość: {0}</t>
   </si>
   <si>
-    <t>Defina a quantidade de ~o~cones~s~.
+    <t xml:space="preserve">Defina a quantidade de ~o~cones~s~.
 Quantidade atual: {0}</t>
   </si>
   <si>
-    <t>Установлено для ~o~ количества конусов~s~.
+    <t xml:space="preserve">Установлено для ~o~ количества конусов~s~.
 Теперь посчитайте: {0}</t>
   </si>
   <si>
-    <t>Cantidad de los ~o~pilones~s~.
+    <t xml:space="preserve">Cantidad de los ~o~pilones~s~.
 Cantidad ahora: {0}</t>
   </si>
   <si>
-    <t>~o~Dubalar~s~ için adet belirleyin.
+    <t xml:space="preserve">~o~Dubalar~s~ için adet belirleyin.
 Şuanki adet: {0}</t>
   </si>
   <si>
-    <t>Nastavte na pocet ~o~dopravnich kuzelu~s~.
+    <t xml:space="preserve">Nastavte na pocet ~o~dopravnich kuzelu~s~.
 Nyni pocitejte: {0}</t>
   </si>
   <si>
-    <t>Anger antalet ~o~koner ~s~ som ska sättas ut.
+    <t xml:space="preserve">Anger antalet ~o~koner ~s~ som ska sättas ut.
 Nuvarande antal: {0}</t>
   </si>
   <si>
-    <t>Nustatyti ~o~kūgių~s~ kiekį
+    <t xml:space="preserve">Nustatyti ~o~kūgių~s~ kiekį
 Dabartinis: {0}</t>
   </si>
   <si>
@@ -1295,55 +1353,55 @@
     <t>ResetPylonItemDesc</t>
   </si>
   <si>
-    <t>~o~パイロン~s~の設定を~r~リセット~s~します。
+    <t xml:space="preserve">~o~パイロン~s~の設定を~r~リセット~s~します。
 (既存のパイロンは~y~削除されません~s~。)</t>
   </si>
   <si>
-    <t>~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
+    <t xml:space="preserve">~r~ 重置 ~s~ ~o~ 三角錐 ~s~ 的設定。
 ( ~y~ 不會取消 ~s~ 多出之三角錐)。</t>
   </si>
   <si>
-    <t>~r~Reset~